--- a/接口汇总.xlsx
+++ b/接口汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11630"/>
+    <workbookView windowWidth="12440" windowHeight="4970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="152">
   <si>
     <t>服务类别</t>
   </si>
@@ -362,6 +362,27 @@
     <t>用户根据订单对电影进行评分和评论。</t>
   </si>
   <si>
+    <t>GetFilmRatingDetials</t>
+  </si>
+  <si>
+    <t>查看某部电影的评论区（评分+评价+时间）</t>
+  </si>
+  <si>
+    <t>GetUserGenreImpression</t>
+  </si>
+  <si>
+    <t>customerId</t>
+  </si>
+  <si>
+    <t>获取某个用户对所有电影类型的喜好（印象分），以字典的形式返回（例：剧情-&gt;70）</t>
+  </si>
+  <si>
+    <t>GetMovieRecommendations</t>
+  </si>
+  <si>
+    <t>根据喜好给某个用户推荐未来两个月内有场次的5部电影</t>
+  </si>
+  <si>
     <t>CancelRating</t>
   </si>
   <si>
@@ -429,9 +450,6 @@
   </si>
   <si>
     <t>DeleteCustomerAccount</t>
-  </si>
-  <si>
-    <t>customerId</t>
   </si>
   <si>
     <t>删除顾客账户。</t>
@@ -1107,7 +1125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,6 +1136,7 @@
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1643,10 +1662,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1656,7 +1675,7 @@
     <col min="4" max="4" width="40.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" ht="14.75" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1675,7 +1694,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" ht="38.75" spans="1:9">
+    <row r="2" ht="14.75" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1694,7 +1713,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" ht="14.75" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1745,7 +1764,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" ht="14.75" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
@@ -1762,7 +1781,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" ht="38.75" spans="1:9">
+    <row r="7" ht="25.75" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1866,7 +1885,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" ht="14.75" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>35</v>
@@ -1883,7 +1902,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" ht="38.75" spans="1:9">
+    <row r="14" ht="25.75" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -1902,7 +1921,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" ht="14.75" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>41</v>
@@ -2021,7 +2040,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" ht="14.75" spans="1:9">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>61</v>
@@ -2038,7 +2057,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" ht="38.75" spans="1:9">
+    <row r="23" ht="38.25" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>64</v>
       </c>
@@ -2108,7 +2127,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" ht="14.75" spans="1:9">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>77</v>
@@ -2125,7 +2144,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" ht="26.25" spans="1:9">
+    <row r="28" ht="14.75" spans="1:9">
       <c r="A28" s="2" t="s">
         <v>80</v>
       </c>
@@ -2144,7 +2163,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" ht="14.75" spans="1:9">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>83</v>
@@ -2195,7 +2214,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" ht="14.75" spans="1:9">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>90</v>
@@ -2212,7 +2231,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" ht="38.75" spans="1:9">
+    <row r="33" ht="14.75" spans="1:9">
       <c r="A33" s="2" t="s">
         <v>93</v>
       </c>
@@ -2265,7 +2284,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" ht="38.75" spans="1:9">
+    <row r="36" ht="14.75" spans="1:9">
       <c r="A36" s="2" t="s">
         <v>102</v>
       </c>
@@ -2284,7 +2303,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" ht="14.75" spans="1:9">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>106</v>
@@ -2318,15 +2337,15 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" ht="14.75" spans="1:9">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>112</v>
       </c>
       <c r="E39" s="1"/>
@@ -2335,18 +2354,16 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" ht="38.75" spans="1:9">
-      <c r="A40" s="2" t="s">
+    <row r="40" ht="25.75" spans="1:9">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2354,16 +2371,16 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" ht="25.75" spans="1:9">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2373,31 +2390,25 @@
     </row>
     <row r="42" ht="14.75" spans="1:9">
       <c r="A42" s="1"/>
-      <c r="B42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" ht="14.75" spans="1:9">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2405,18 +2416,18 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" ht="26.75" spans="1:9">
+    <row r="44" ht="14.75" spans="1:9">
       <c r="A44" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2424,16 +2435,16 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" ht="14.75" spans="1:9">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2444,13 +2455,13 @@
     <row r="46" ht="14.75" spans="1:9">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2458,16 +2469,16 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" ht="26.75" spans="1:9">
+    <row r="47" ht="14.75" spans="1:9">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>135</v>
+        <v>25</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2476,15 +2487,17 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" ht="14.75" spans="1:9">
-      <c r="A48" s="1"/>
+      <c r="A48" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="B48" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2492,16 +2505,16 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" ht="26.75" spans="1:9">
+    <row r="49" ht="14.75" spans="1:9">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2512,13 +2525,13 @@
     <row r="50" ht="14.75" spans="1:9">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2529,13 +2542,13 @@
     <row r="51" ht="14.75" spans="1:9">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2543,73 +2556,97 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="2"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+    <row r="52" ht="14.75" spans="1:9">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" ht="14.75" spans="1:9">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="3"/>
+      <c r="B53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" ht="14.75" spans="1:9">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="3"/>
+      <c r="B54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" ht="14.75" spans="1:9">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="1"/>
+    <row r="56" ht="14.75" spans="1:9">
+      <c r="A56" s="2"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" ht="14.75" spans="1:9">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="D57" s="3"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" ht="14.75" spans="1:9">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2620,11 +2657,11 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" ht="14.75" spans="1:9">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="3"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -2635,13 +2672,57 @@
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="D60" s="3"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
+    <row r="61" ht="14.75" spans="1:9">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" ht="14.75" spans="1:9">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" ht="14.75" spans="1:9">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" ht="14.75" spans="1:9">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
